--- a/Test cases for Telnyx.com.xlsx
+++ b/Test cases for Telnyx.com.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\фермер\Desktop\Telnyx_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qa\Telnyx_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87469A44-000D-4851-9012-F354148A154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205DEDF4-9543-4002-BD92-27206511B9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{F33921D4-0D34-4707-A131-2AE794F0F9F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{F33921D4-0D34-4707-A131-2AE794F0F9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
   <si>
     <t>Project Name</t>
   </si>
@@ -94,52 +94,24 @@
     <t>The entered data is displayed</t>
   </si>
   <si>
-    <t>The my page is displayed</t>
-  </si>
-  <si>
     <t>C002</t>
   </si>
   <si>
-    <t>Login to the website with valid existing credentials</t>
-  </si>
-  <si>
     <t>Enter Login button</t>
   </si>
   <si>
     <t>Open the website</t>
   </si>
   <si>
-    <t>Fill username with invalid data</t>
-  </si>
-  <si>
-    <t>Fill password with valid data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fill username with valid given data</t>
-  </si>
-  <si>
     <t>Fill password with valid given data</t>
   </si>
   <si>
-    <t>The error message "Wrong 
-username/password" pop up</t>
-  </si>
-  <si>
     <t>C003</t>
   </si>
   <si>
-    <t xml:space="preserve">Login to the website with incorrect password </t>
-  </si>
-  <si>
-    <t>Login to the website with incorrect username</t>
-  </si>
-  <si>
     <t>Fill username with valid data</t>
   </si>
   <si>
-    <t>Fill password with invalid data</t>
-  </si>
-  <si>
     <t>Press on search button</t>
   </si>
   <si>
@@ -149,46 +121,18 @@
     <t>The Register page is displayed</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fill username with existing data</t>
-  </si>
-  <si>
     <t>Fill other fields with new valid given data</t>
   </si>
   <si>
     <t>Enter Register button</t>
   </si>
   <si>
-    <t>Error message: "Login has been taken" is displayed</t>
-  </si>
-  <si>
-    <t>Register to the website with the existing nickname</t>
-  </si>
-  <si>
-    <t>Register to the website with short password</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fill short password (less than 8 char)</t>
-  </si>
-  <si>
-    <t>Error message: "Password is to short" is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fill the fields with valid random data</t>
-  </si>
-  <si>
-    <t>Success message:"Account was successfully
-created." is displayed</t>
-  </si>
-  <si>
     <t>Click the "SignUp" button</t>
   </si>
   <si>
     <t>Enter SignUp button</t>
   </si>
   <si>
-    <t>Verify that a new user can successfully register an account</t>
-  </si>
-  <si>
     <t>Main page is displayed</t>
   </si>
   <si>
@@ -234,19 +178,6 @@
     <t>The search results are corresponding to the searching data</t>
   </si>
   <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>Click Logout button</t>
-  </si>
-  <si>
-    <t>The dashboard is not available 
-and user is transferred to main page</t>
-  </si>
-  <si>
-    <t>Logout from the Users personal account page</t>
-  </si>
-  <si>
     <t>Open the shop page</t>
   </si>
   <si>
@@ -275,6 +206,54 @@
   </si>
   <si>
     <t>Shopping cart is empty' is displayed</t>
+  </si>
+  <si>
+    <t>Register user with short password</t>
+  </si>
+  <si>
+    <t>Enter the fields, and the password less than 12 chr</t>
+  </si>
+  <si>
+    <t>Error message:"Password can't be less than 12 characters"</t>
+  </si>
+  <si>
+    <t>Register to the website with non existing email</t>
+  </si>
+  <si>
+    <t>Fill non existing email</t>
+  </si>
+  <si>
+    <t>Error message: "You cant register with that email" is displayed</t>
+  </si>
+  <si>
+    <t>Register new user without ticking conditions and rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fill the credentials with existing data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don't confirm a field "terms and conditions</t>
+  </si>
+  <si>
+    <t>Error message: "Please accept the terms" is displayed</t>
+  </si>
+  <si>
+    <t>Login to the website with empty email</t>
+  </si>
+  <si>
+    <t>Don't fill email fields</t>
+  </si>
+  <si>
+    <t>There is no data in the field</t>
+  </si>
+  <si>
+    <t>Error message: "Required"is displayed</t>
+  </si>
+  <si>
+    <t>Login to the website with empty password</t>
+  </si>
+  <si>
+    <t>Don't fill password field</t>
   </si>
 </sst>
 </file>
@@ -553,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -614,8 +593,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,25 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1096,16 +1072,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3721B590-CC33-4221-9074-BF4B86AECD68}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1113,21 +1089,21 @@
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1148,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>15</v>
@@ -1172,10 +1148,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D6" s="20"/>
     </row>
@@ -1184,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>17</v>
@@ -1196,30 +1172,30 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>1</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>15</v>
@@ -1255,198 +1231,30 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
     </row>
-    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
-        <v>1</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
-        <v>2</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>3</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>4</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>5</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>1</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>2</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>3</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <v>4</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <v>5</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
-        <v>6</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="26"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1457,13 +1265,13 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1471,21 +1279,21 @@
       <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -1506,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>15</v>
@@ -1518,10 +1326,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5" s="34"/>
     </row>
@@ -1530,7 +1338,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>17</v>
@@ -1542,22 +1350,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
+        <v>18</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
@@ -1578,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>15</v>
@@ -1590,10 +1398,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D11" s="34"/>
     </row>
@@ -1602,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>17</v>
@@ -1614,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>17</v>
@@ -1626,22 +1434,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
+        <v>22</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
@@ -1662,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>15</v>
@@ -1674,10 +1482,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D18" s="34"/>
     </row>
@@ -1686,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>17</v>
@@ -1698,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>17</v>
@@ -1710,10 +1518,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D21" s="34"/>
     </row>
@@ -1734,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1CF227-74B1-478E-8A8F-B095C10C62B2}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,21 +1557,21 @@
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
@@ -1786,10 +1594,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D4" s="25"/>
     </row>
@@ -1798,10 +1606,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -1810,10 +1618,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D6" s="25"/>
     </row>
@@ -1822,10 +1630,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D7" s="25"/>
     </row>
@@ -1834,10 +1642,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D8" s="26"/>
     </row>
@@ -1884,9 +1692,9 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
@@ -1922,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E33FD8C-C3AA-46C6-BA2C-B83705E6CE4F}">
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1937,33 +1745,33 @@
       <c r="A2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="73"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="74"/>
+        <v>54</v>
+      </c>
+      <c r="D3" s="49"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1971,55 +1779,55 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="70"/>
+      <c r="B5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="70"/>
+      <c r="B6" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
+        <v>18</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="50" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2028,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D10" s="25"/>
     </row>
@@ -2040,10 +1848,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D11" s="25"/>
     </row>
@@ -2052,10 +1860,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D12" s="25"/>
     </row>
@@ -2064,34 +1872,34 @@
         <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
+        <v>22</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="50" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2100,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D16" s="25"/>
     </row>
@@ -2112,10 +1920,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D17" s="25"/>
     </row>
@@ -2124,10 +1932,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D18" s="25"/>
     </row>
@@ -2136,10 +1944,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D19" s="26"/>
     </row>

--- a/Test cases for Telnyx.com.xlsx
+++ b/Test cases for Telnyx.com.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qa\Telnyx_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205DEDF4-9543-4002-BD92-27206511B9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7CEC40-A02A-473C-8D27-E003558BCC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{F33921D4-0D34-4707-A131-2AE794F0F9F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{F33921D4-0D34-4707-A131-2AE794F0F9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name=" Login " sheetId="2" r:id="rId2"/>
     <sheet name="Register" sheetId="4" r:id="rId3"/>
     <sheet name="Search" sheetId="3" r:id="rId4"/>
-    <sheet name="Shop" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Shop" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
   <si>
     <t>Project Name</t>
   </si>
@@ -254,6 +255,30 @@
   </si>
   <si>
     <t>Don't fill password field</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>Localization: check if currency changes when, changing the country in dropdown menu</t>
+  </si>
+  <si>
+    <t>Click on the dropdown menu of countries in the footer</t>
+  </si>
+  <si>
+    <t>Click on selected country and currency</t>
+  </si>
+  <si>
+    <t>List of countries is displayed</t>
+  </si>
+  <si>
+    <t>Country and currency is selected</t>
+  </si>
+  <si>
+    <t>Check that the currency on the items changed to selected one</t>
+  </si>
+  <si>
+    <t>The currency on the items changed to the selected one</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1CF227-74B1-478E-8A8F-B095C10C62B2}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1727,16 +1752,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E533B2-DB39-4467-94F7-9FB9A4D0A15F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E33FD8C-C3AA-46C6-BA2C-B83705E6CE4F}">
-  <dimension ref="A2:D19"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
     <col min="3" max="3" width="62.140625" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
   </cols>
@@ -1951,11 +1988,84 @@
       </c>
       <c r="D19" s="26"/>
     </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>1</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>2</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>3</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
